--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1B327-AD83-44B8-BBCB-A78674331D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9B6A5-73F5-40DA-863F-397A1D0773DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>company_code</t>
   </si>
@@ -247,6 +247,30 @@
   </si>
   <si>
     <t>ส่วนสูง(ซม)</t>
+  </si>
+  <si>
+    <t>nationality_code</t>
+  </si>
+  <si>
+    <t>รหัสสัญชาติ</t>
+  </si>
+  <si>
+    <t>worker_cardno</t>
+  </si>
+  <si>
+    <t>worker_cardnoissuedate</t>
+  </si>
+  <si>
+    <t>worker_cardnoexpiredate</t>
+  </si>
+  <si>
+    <t>รหัสบัตรประชาชน</t>
+  </si>
+  <si>
+    <t>วันออกบัตร</t>
+  </si>
+  <si>
+    <t>วันหมดอายุ</t>
   </si>
 </sst>
 </file>
@@ -322,12 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,11 +363,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -674,108 +705,127 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="14" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="16.21875" customWidth="1"/>
     <col min="17" max="17" width="17.77734375" customWidth="1"/>
     <col min="18" max="18" width="18.44140625" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" customWidth="1"/>
     <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="27.88671875" customWidth="1"/>
     <col min="26" max="26" width="18.109375" customWidth="1"/>
+    <col min="27" max="27" width="19.44140625" customWidth="1"/>
+    <col min="28" max="28" width="21.77734375" customWidth="1"/>
+    <col min="29" max="29" width="16.77734375" customWidth="1"/>
+    <col min="30" max="30" width="18.109375" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" customWidth="1"/>
+    <col min="32" max="32" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AA1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="AF1" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="J2" s="2"/>
@@ -786,7 +836,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="11"/>
+      <c r="W2" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -797,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,299 +866,328 @@
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="16" width="13.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="19" width="19.77734375" customWidth="1"/>
-    <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" customWidth="1"/>
-    <col min="22" max="22" width="22.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="21.88671875" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" customWidth="1"/>
-    <col min="28" max="28" width="23.88671875" customWidth="1"/>
+    <col min="12" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="21.88671875" customWidth="1"/>
+    <col min="29" max="29" width="13.5546875" customWidth="1"/>
+    <col min="30" max="30" width="16.88671875" customWidth="1"/>
+    <col min="31" max="31" width="23.88671875" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="35" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AA1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="AF1" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="AF2" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>29280</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>44963</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="5">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="5">
+      <c r="W3" s="4">
         <v>129</v>
       </c>
-      <c r="U3" s="7">
+      <c r="X3" s="6">
         <v>44963</v>
       </c>
-      <c r="V3" s="7">
+      <c r="Y3" s="6">
         <v>45077</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Z3" s="4">
         <v>8</v>
       </c>
-      <c r="X3" s="5">
+      <c r="AA3" s="4">
         <v>992123122</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="AB3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AE3" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="R4" s="3" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB9" s="1" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB10" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB13" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE13" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1" xr:uid="{6D8344B8-B7D7-4280-A6E6-A42EF05CEE47}"/>
+    <hyperlink ref="AB3" r:id="rId1" xr:uid="{6D8344B8-B7D7-4280-A6E6-A42EF05CEE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9B6A5-73F5-40DA-863F-397A1D0773DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8D52D-3366-492E-A8ED-60A0E2034308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>company_code</t>
   </si>
@@ -271,6 +271,24 @@
   </si>
   <si>
     <t>วันหมดอายุ</t>
+  </si>
+  <si>
+    <t>worker_socialno</t>
+  </si>
+  <si>
+    <t>worker_socialnoissuedate</t>
+  </si>
+  <si>
+    <t>worker_socialnoexpiredate</t>
+  </si>
+  <si>
+    <t>รหัสบัตรประกันสังคม</t>
+  </si>
+  <si>
+    <t>วันที่เข้าประกันสังคม</t>
+  </si>
+  <si>
+    <t>วันที่ออกประกันสังคม</t>
   </si>
 </sst>
 </file>
@@ -687,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -727,7 +745,7 @@
     <col min="32" max="32" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -824,8 +842,17 @@
       <c r="AF1" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="AG1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="J2" s="2"/>
@@ -847,11 +874,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -881,10 +906,12 @@
     <col min="30" max="30" width="16.88671875" customWidth="1"/>
     <col min="31" max="31" width="23.88671875" customWidth="1"/>
     <col min="32" max="32" width="15.21875" customWidth="1"/>
-    <col min="33" max="35" width="8.88671875" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" customWidth="1"/>
+    <col min="34" max="34" width="23.5546875" customWidth="1"/>
+    <col min="35" max="35" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -981,8 +1008,17 @@
       <c r="AF1" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="AG1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1079,8 +1115,17 @@
       <c r="AF2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1155,32 +1200,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="U4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE13" t="s">
         <v>69</v>
       </c>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8D52D-3366-492E-A8ED-60A0E2034308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2EB68D-75FC-4066-ABBA-71F33248F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,6 +392,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -891,8 +906,10 @@
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="15" customWidth="1"/>
+    <col min="14" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13" style="15" customWidth="1"/>
     <col min="17" max="19" width="13.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.33203125" customWidth="1"/>
     <col min="21" max="22" width="19.77734375" customWidth="1"/>
@@ -948,7 +965,7 @@
       <c r="L1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="16" t="s">
         <v>77</v>
       </c>
       <c r="N1" s="10" t="s">
@@ -957,7 +974,7 @@
       <c r="O1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>27</v>
       </c>
       <c r="Q1" s="11" t="s">
@@ -1055,7 +1072,7 @@
       <c r="L2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="14" t="s">
         <v>80</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1064,7 +1081,7 @@
       <c r="O2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1162,13 +1179,13 @@
       <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="4">
         <v>0</v>
       </c>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2EB68D-75FC-4066-ABBA-71F33248F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C2435-BA54-40BE-A7A7-A4906E4851C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>company_code</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>วันที่ออกประกันสังคม</t>
+  </si>
+  <si>
+    <t>1111111111111</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,7 +386,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,17 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -736,7 +727,8 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="13" width="14.6640625" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="16.21875" customWidth="1"/>
@@ -758,125 +750,112 @@
     <col min="32" max="32" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -889,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,10 +885,8 @@
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="15" customWidth="1"/>
-    <col min="14" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13" style="15" customWidth="1"/>
+    <col min="12" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="19" width="13.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.33203125" customWidth="1"/>
     <col min="21" max="22" width="19.77734375" customWidth="1"/>
@@ -928,297 +905,295 @@
     <col min="35" max="35" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>29280</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>44963</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="4">
+      <c r="M3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="T3" s="3">
         <v>0</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>129</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>44963</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>45077</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>8</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="3">
         <v>992123122</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
